--- a/ssc/ssc-api-sched.xlsx
+++ b/ssc/ssc-api-sched.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>账号注册</t>
   </si>
@@ -76,136 +76,140 @@
     <t>评论</t>
   </si>
   <si>
+    <t>问题详情</t>
+  </si>
+  <si>
+    <t>接受答复</t>
+  </si>
+  <si>
+    <t>发私信</t>
+  </si>
+  <si>
+    <t>私信数量</t>
+  </si>
+  <si>
+    <t>私信列表</t>
+  </si>
+  <si>
+    <t>未读通知数量</t>
+  </si>
+  <si>
+    <t>通知列表</t>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FND</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>POFO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLV</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRVM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTIF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表评论</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置用户标签</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签分组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0918</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0927</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0919</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0920</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0921</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>问题列表</t>
-  </si>
-  <si>
-    <t>问题详情</t>
-  </si>
-  <si>
-    <t>接受答复</t>
-  </si>
-  <si>
-    <t>发私信</t>
-  </si>
-  <si>
-    <t>私信数量</t>
-  </si>
-  <si>
-    <t>私信列表</t>
-  </si>
-  <si>
-    <t>未读通知数量</t>
-  </si>
-  <si>
-    <t>通知列表</t>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTH</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FND</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>POFO</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLV</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRVM</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOTIF</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>发表评论</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置用户标签</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签分组</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0918</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0927</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0919</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0920</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0921</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>职责类型</t>
   </si>
 </sst>
 </file>
@@ -996,21 +1000,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,6 +1044,21 @@
     </xf>
     <xf numFmtId="49" fontId="19" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1391,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -1403,33 +1407,33 @@
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="25.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="27" style="21" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="21" customWidth="1"/>
+    <col min="6" max="6" width="27" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1">
+      <c r="A2" s="30" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
@@ -1438,11 +1442,11 @@
         <v>1</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="20"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="13"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1450,11 +1454,11 @@
         <v>1</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="13"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
@@ -1464,13 +1468,13 @@
       <c r="D4" s="11">
         <v>0.5</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="19"/>
+      <c r="E4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1480,27 +1484,27 @@
       <c r="D5" s="12">
         <v>0.5</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="22"/>
+      <c r="E5" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>32</v>
+      <c r="A6" s="30" t="s">
+        <v>31</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="24"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1">
-      <c r="A7" s="13"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1508,382 +1512,396 @@
         <v>1</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="19"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1">
-      <c r="A8" s="13"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="19"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1">
-      <c r="A9" s="13"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="19"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1">
-      <c r="A10" s="13"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="19" t="s">
-        <v>48</v>
+      <c r="E10" s="18"/>
+      <c r="F10" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1">
-      <c r="A11" s="16"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="22" t="s">
-        <v>48</v>
+      <c r="E11" s="26"/>
+      <c r="F11" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1">
+      <c r="A13" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D13" s="10">
         <v>1</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="11" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="C15" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="11">
         <v>0.5</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="19"/>
+      <c r="E15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1">
-      <c r="A16" s="17"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="D16" s="11">
         <v>0.5</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="19"/>
+      <c r="E16" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1">
-      <c r="A17" s="17"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="11">
         <v>0.5</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="18" customHeight="1">
+      <c r="A18" s="32"/>
+      <c r="B18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" customHeight="1">
+      <c r="A19" s="32"/>
+      <c r="B19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="9">
         <v>1</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="9">
+      <c r="E20" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1">
+      <c r="A21" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="10">
         <v>1</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1">
-      <c r="A20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="E21" s="18">
         <v>922</v>
       </c>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="11" t="s">
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1">
+      <c r="A22" s="32"/>
+      <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="23">
-        <v>925</v>
-      </c>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="C22" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="11">
         <v>0.5</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="18">
         <v>925</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="27">
-        <v>926</v>
-      </c>
-      <c r="F23" s="24"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="18">
+        <v>925</v>
+      </c>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1">
-      <c r="A24" s="17"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="4" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="22">
+        <v>926</v>
+      </c>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="4">
         <v>0.5</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E25" s="22">
         <v>927</v>
       </c>
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="5" t="s">
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="23" ph="1">
+        <v>927</v>
+      </c>
+      <c r="F26" s="20" ph="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1">
+      <c r="A27" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D27" s="3">
         <v>0.5</v>
       </c>
-      <c r="E25" s="28" ph="1">
-        <v>927</v>
-      </c>
-      <c r="F25" s="25" ph="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1">
-      <c r="A26" s="15" t="s">
+      <c r="E27" s="22">
+        <v>928</v>
+      </c>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:6" ht="18" customHeight="1">
+      <c r="A28" s="32"/>
+      <c r="B28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="22">
+        <v>928</v>
+      </c>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:6" ht="18" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="23">
+        <v>929</v>
+      </c>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" ht="18" customHeight="1">
+      <c r="A30" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D30" s="4">
         <v>0.5</v>
       </c>
-      <c r="E26" s="27">
-        <v>928</v>
-      </c>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="E30" s="22">
+        <v>929</v>
+      </c>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:6" ht="18" customHeight="1">
+      <c r="A31" s="29"/>
+      <c r="B31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D31" s="5">
         <v>0.5</v>
       </c>
-      <c r="E27" s="27">
-        <v>928</v>
-      </c>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1">
-      <c r="A28" s="14"/>
-      <c r="B28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="28">
-        <v>929</v>
-      </c>
-      <c r="F28" s="25"/>
-    </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1">
-      <c r="A29" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="27">
-        <v>929</v>
-      </c>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="28">
+      <c r="E31" s="23">
         <v>930</v>
       </c>
-      <c r="F30" s="25"/>
-    </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1">
-      <c r="F31" s="26"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6" ht="18" customHeight="1">
-      <c r="F32" s="26"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="6:6" ht="18" customHeight="1">
+      <c r="F33" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:F1"/>
   <mergeCells count="6">
-    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ssc/ssc-api-sched.xlsx
+++ b/ssc/ssc-api-sched.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>账号注册</t>
   </si>
@@ -76,140 +76,149 @@
     <t>评论</t>
   </si>
   <si>
+    <t>接受答复</t>
+  </si>
+  <si>
+    <t>发私信</t>
+  </si>
+  <si>
+    <t>私信数量</t>
+  </si>
+  <si>
+    <t>私信列表</t>
+  </si>
+  <si>
+    <t>未读通知数量</t>
+  </si>
+  <si>
+    <t>通知列表</t>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FND</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>POFO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLV</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRVM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTIF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表评论</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置用户标签</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签分组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0918</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0927</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0919</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0920</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0921</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题列表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>职责类型</t>
+  </si>
+  <si>
     <t>问题详情</t>
-  </si>
-  <si>
-    <t>接受答复</t>
-  </si>
-  <si>
-    <t>发私信</t>
-  </si>
-  <si>
-    <t>私信数量</t>
-  </si>
-  <si>
-    <t>私信列表</t>
-  </si>
-  <si>
-    <t>未读通知数量</t>
-  </si>
-  <si>
-    <t>通知列表</t>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTH</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FND</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>POFO</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLV</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRVM</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOTIF</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>发表评论</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置用户标签</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签分组</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0918</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0927</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0919</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0920</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0921</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题列表</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>职责类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>927</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>928</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -960,7 +969,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1059,6 +1068,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1397,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -1413,27 +1428,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E1" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
@@ -1469,7 +1484,7 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="14"/>
     </row>
@@ -1485,19 +1500,19 @@
         <v>0.5</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
       <c r="A6" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="22"/>
@@ -1521,7 +1536,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="18"/>
@@ -1533,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="18"/>
@@ -1542,7 +1557,7 @@
     <row r="10" spans="1:6" ht="18" customHeight="1">
       <c r="A10" s="28"/>
       <c r="B10" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>1</v>
@@ -1550,13 +1565,13 @@
       <c r="D10" s="11"/>
       <c r="E10" s="18"/>
       <c r="F10" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1">
       <c r="A11" s="28"/>
       <c r="B11" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>1</v>
@@ -1564,13 +1579,13 @@
       <c r="D11" s="12"/>
       <c r="E11" s="26"/>
       <c r="F11" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1">
       <c r="A12" s="31"/>
       <c r="B12" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>1</v>
@@ -1583,7 +1598,7 @@
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1">
       <c r="A13" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>9</v>
@@ -1603,7 +1618,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="18"/>
@@ -1615,61 +1630,61 @@
         <v>11</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="11">
         <v>0.5</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="11">
         <v>0.5</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1">
       <c r="A17" s="32"/>
       <c r="B17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="D17" s="11">
         <v>0.5</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="18" customHeight="1">
       <c r="A18" s="32"/>
       <c r="B18" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="11">
         <v>0.5</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="14"/>
     </row>
@@ -1679,13 +1694,13 @@
         <v>13</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="11">
         <v>1</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="14"/>
     </row>
@@ -1707,13 +1722,13 @@
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1">
       <c r="A21" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="10">
         <v>1</v>
@@ -1729,7 +1744,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="11">
         <v>0.5</v>
@@ -1745,7 +1760,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="11">
         <v>0.5</v>
@@ -1757,58 +1772,58 @@
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1">
       <c r="A24" s="32"/>
-      <c r="B24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="B24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="11">
         <v>1</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="11">
         <v>926</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:6" ht="18" customHeight="1">
       <c r="A25" s="32"/>
-      <c r="B25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="B25" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="11">
         <v>0.5</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="11">
         <v>927</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1">
       <c r="A26" s="29"/>
-      <c r="B26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="B26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="12">
         <v>0.5</v>
       </c>
-      <c r="E26" s="23" ph="1">
-        <v>927</v>
-      </c>
-      <c r="F26" s="20" ph="1"/>
+      <c r="E26" s="34" t="s" ph="1">
+        <v>55</v>
+      </c>
+      <c r="F26" s="17" ph="1"/>
     </row>
     <row r="27" spans="1:6" ht="18" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>12</v>
@@ -1816,15 +1831,15 @@
       <c r="D27" s="3">
         <v>0.5</v>
       </c>
-      <c r="E27" s="22">
-        <v>928</v>
+      <c r="E27" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" ht="18" customHeight="1">
       <c r="A28" s="32"/>
       <c r="B28" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>12</v>
@@ -1840,7 +1855,7 @@
     <row r="29" spans="1:6" ht="18" customHeight="1">
       <c r="A29" s="29"/>
       <c r="B29" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>12</v>
@@ -1855,10 +1870,10 @@
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1">
       <c r="A30" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>12</v>
@@ -1874,7 +1889,7 @@
     <row r="31" spans="1:6" ht="18" customHeight="1">
       <c r="A31" s="29"/>
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>12</v>

--- a/ssc/ssc-api-sched.xlsx
+++ b/ssc/ssc-api-sched.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>账号注册</t>
   </si>
@@ -218,6 +218,18 @@
   </si>
   <si>
     <t>928</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论列表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1021</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>答复vote</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -840,6 +852,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -969,7 +990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,6 +1075,12 @@
     <xf numFmtId="49" fontId="19" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1069,10 +1096,13 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1410,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -1447,7 +1477,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1461,7 +1491,7 @@
       <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="28"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1473,7 +1503,7 @@
       <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="28"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
@@ -1489,7 +1519,7 @@
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="31"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1505,7 +1535,7 @@
       <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1519,7 +1549,7 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1">
-      <c r="A7" s="28"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1531,7 +1561,7 @@
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1">
-      <c r="A8" s="28"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1543,7 +1573,7 @@
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1">
-      <c r="A9" s="28"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
@@ -1555,7 +1585,7 @@
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1">
-      <c r="A10" s="28"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="11" t="s">
         <v>44</v>
       </c>
@@ -1569,7 +1599,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1">
-      <c r="A11" s="28"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="12" t="s">
         <v>43</v>
       </c>
@@ -1583,7 +1613,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1">
-      <c r="A12" s="31"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="12" t="s">
         <v>53</v>
       </c>
@@ -1597,7 +1627,7 @@
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="32" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1613,7 +1643,7 @@
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1625,7 +1655,7 @@
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1">
-      <c r="A15" s="32"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1641,7 +1671,7 @@
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1">
-      <c r="A16" s="32"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="11" t="s">
         <v>38</v>
       </c>
@@ -1657,7 +1687,7 @@
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1">
-      <c r="A17" s="32"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="11" t="s">
         <v>36</v>
       </c>
@@ -1673,7 +1703,7 @@
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="18" customHeight="1">
-      <c r="A18" s="32"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="11" t="s">
         <v>39</v>
       </c>
@@ -1689,7 +1719,7 @@
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="18" customHeight="1">
-      <c r="A19" s="32"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="11" t="s">
         <v>13</v>
       </c>
@@ -1705,7 +1735,7 @@
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="8" t="s">
         <v>14</v>
       </c>
@@ -1721,7 +1751,7 @@
       <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="32" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -1739,7 +1769,7 @@
       <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1">
-      <c r="A22" s="32"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -1755,7 +1785,7 @@
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1">
-      <c r="A23" s="32"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="11" t="s">
         <v>18</v>
       </c>
@@ -1771,109 +1801,107 @@
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1">
-      <c r="A24" s="32"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="11">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11">
-        <v>926</v>
-      </c>
-      <c r="F24" s="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="18" customHeight="1">
-      <c r="A25" s="32"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="11">
-        <v>927</v>
-      </c>
-      <c r="F25" s="33"/>
+        <v>926</v>
+      </c>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="12" t="s">
-        <v>19</v>
+      <c r="A26" s="34"/>
+      <c r="B26" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>0.5</v>
       </c>
-      <c r="E26" s="34" t="s" ph="1">
+      <c r="E26" s="11">
+        <v>927</v>
+      </c>
+      <c r="F26" s="29"/>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1">
+      <c r="A27" s="34"/>
+      <c r="B27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="35" t="s" ph="1">
         <v>55</v>
       </c>
-      <c r="F26" s="17" ph="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1">
-      <c r="A27" s="30" t="s">
+      <c r="F27" s="14" ph="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="18" customHeight="1">
+      <c r="A28" s="28"/>
+      <c r="B28" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="35" ph="1"/>
+      <c r="F28" s="37" t="s" ph="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" customHeight="1">
+      <c r="A29" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D29" s="3">
         <v>0.5</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E29" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1">
-      <c r="A28" s="32"/>
-      <c r="B28" s="4" t="s">
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" ht="18" customHeight="1">
+      <c r="A30" s="34"/>
+      <c r="B30" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="22">
-        <v>928</v>
-      </c>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="23">
-        <v>929</v>
-      </c>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1">
-      <c r="A30" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>12</v>
@@ -1882,14 +1910,14 @@
         <v>0.5</v>
       </c>
       <c r="E30" s="22">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" ht="18" customHeight="1">
-      <c r="A31" s="29"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>12</v>
@@ -1898,25 +1926,59 @@
         <v>0.5</v>
       </c>
       <c r="E31" s="23">
+        <v>929</v>
+      </c>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:6" ht="18" customHeight="1">
+      <c r="A32" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="22">
+        <v>929</v>
+      </c>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:6" ht="18" customHeight="1">
+      <c r="A33" s="31"/>
+      <c r="B33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="23">
         <v>930</v>
       </c>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1">
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="6:6" ht="18" customHeight="1">
-      <c r="F33" s="21"/>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="1:6" ht="18" customHeight="1">
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="18" customHeight="1">
+      <c r="F35" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:F1"/>
   <mergeCells count="6">
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A29:A31"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ssc/ssc-api-sched.xlsx
+++ b/ssc/ssc-api-sched.xlsx
@@ -10,14 +10,14 @@
     <sheet name="ssc-sched" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ssc-sched'!$E$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ssc-sched'!$A$1:$G$34</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>账号注册</t>
   </si>
@@ -88,148 +88,161 @@
     <t>私信列表</t>
   </si>
   <si>
+    <t>模块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FND</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>POFO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLV</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRVM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表评论</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置用户标签</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签分组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0918</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0927</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0919</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0920</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0921</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题列表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>职责类型</t>
+  </si>
+  <si>
+    <t>问题详情</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>927</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>928</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论列表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1021</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>答复vote</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHASE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVB</t>
+  </si>
+  <si>
+    <t>MVB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>未读通知数量</t>
-  </si>
-  <si>
-    <t>通知列表</t>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTH</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FND</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>POFO</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLV</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRVM</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOTIF</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>发表评论</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置用户标签</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签分组</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0918</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0927</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0919</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0920</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0921</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题列表</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>职责类型</t>
-  </si>
-  <si>
-    <t>问题详情</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>927</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>928</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论列表</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1021</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>答复vote</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取通知列表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新通知已读</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -990,7 +1003,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1030,30 +1043,12 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1078,32 +1073,47 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1440,45 +1450,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="25.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="21" customWidth="1"/>
-    <col min="6" max="6" width="27" style="16" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="15" customWidth="1"/>
+    <col min="6" max="6" width="27" style="13" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.75" customHeight="1">
+    <row r="1" spans="1:7" ht="24.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1">
+      <c r="A2" s="27" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="32" t="s">
-        <v>29</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
@@ -1487,11 +1501,14 @@
         <v>1</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="30"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1">
+      <c r="A3" s="25"/>
       <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1499,11 +1516,14 @@
         <v>1</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="18"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="30"/>
+      <c r="G3" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1">
+      <c r="A4" s="25"/>
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
@@ -1513,13 +1533,16 @@
       <c r="D4" s="11">
         <v>0.5</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>45</v>
+      <c r="E4" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="33"/>
+      <c r="G4" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1">
+      <c r="A5" s="28"/>
       <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1529,27 +1552,31 @@
       <c r="D5" s="12">
         <v>0.5</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="32" t="s">
-        <v>30</v>
+      <c r="E5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1">
-      <c r="A7" s="30"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1">
+      <c r="A7" s="25"/>
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1557,428 +1584,499 @@
         <v>1</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="18"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1">
-      <c r="A8" s="30"/>
+      <c r="G7" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1">
+      <c r="A8" s="25"/>
       <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1">
-      <c r="A9" s="30"/>
+      <c r="G8" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1">
+      <c r="A9" s="25"/>
       <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="18"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1">
-      <c r="A10" s="30"/>
+      <c r="G9" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1">
+      <c r="A10" s="25"/>
       <c r="B10" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="18"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="G10" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" customHeight="1">
+      <c r="A12" s="25"/>
+      <c r="B12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>0.5</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1">
-      <c r="A13" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1">
+      <c r="A13" s="25"/>
+      <c r="B13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1">
-      <c r="A15" s="34"/>
+      <c r="G14" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1">
+      <c r="A15" s="28"/>
       <c r="B15" s="11" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D15" s="11">
         <v>0.5</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>47</v>
-      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1">
+      <c r="A16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1">
-      <c r="A17" s="34"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1">
+      <c r="A17" s="29"/>
       <c r="B17" s="11" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1">
-      <c r="A18" s="34"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1">
+      <c r="A18" s="29"/>
       <c r="B18" s="11" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18" s="11">
         <v>0.5</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>48</v>
+      <c r="E18" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1">
-      <c r="A19" s="34"/>
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1">
+      <c r="A19" s="29"/>
       <c r="B19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="32"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="C22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="11">
         <v>1</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="8" t="s">
+      <c r="E22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1">
+      <c r="A23" s="26"/>
+      <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D23" s="9">
         <v>1</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E23" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1">
-      <c r="A21" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="F23" s="17"/>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1">
+      <c r="A24" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="10">
+      <c r="C24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="10">
         <v>1</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E24" s="14">
         <v>922</v>
       </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="11" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="C25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="11">
         <v>0.5</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E25" s="14">
         <v>925</v>
       </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="11" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="18">
-        <v>925</v>
-      </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1">
-      <c r="A24" s="34"/>
-      <c r="B24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="11">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11">
-        <v>926</v>
-      </c>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1">
-      <c r="A26" s="34"/>
-      <c r="B26" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="C26" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" s="11">
         <v>0.5</v>
       </c>
-      <c r="E26" s="11">
-        <v>927</v>
-      </c>
-      <c r="F26" s="29"/>
-    </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1">
-      <c r="A27" s="34"/>
+      <c r="E26" s="14">
+        <v>925</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" customHeight="1">
+      <c r="A27" s="29"/>
       <c r="B27" s="11" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D27" s="11">
         <v>0.5</v>
       </c>
-      <c r="E27" s="35" t="s" ph="1">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="14" ph="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="36" t="s">
-        <v>59</v>
+      <c r="G27" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1">
+      <c r="A28" s="29"/>
+      <c r="B28" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D28" s="11">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11">
+        <v>926</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="11">
         <v>0.5</v>
       </c>
-      <c r="E28" s="35" ph="1"/>
-      <c r="F28" s="37" t="s" ph="1">
+      <c r="E29" s="11">
+        <v>927</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1">
-      <c r="A29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="30" spans="1:7" ht="18" customHeight="1">
+      <c r="A30" s="29"/>
+      <c r="B30" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="23" t="s" ph="1">
+        <v>52</v>
+      </c>
+      <c r="F30" s="14" ph="1"/>
+      <c r="G30" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1">
+      <c r="A31" s="22"/>
+      <c r="B31" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="23" ph="1"/>
+      <c r="F31" s="23" t="s" ph="1">
+        <v>55</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1">
+      <c r="A32" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D32" s="3">
         <v>0.5</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="4" t="s">
+      <c r="E32" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="34"/>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D33" s="4">
         <v>0.5</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E33" s="16">
         <v>928</v>
       </c>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1">
-      <c r="A31" s="31"/>
-      <c r="B31" s="5" t="s">
+      <c r="F33" s="16"/>
+      <c r="G33" s="34"/>
+    </row>
+    <row r="34" spans="1:7" ht="18" customHeight="1">
+      <c r="A34" s="26"/>
+      <c r="B34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D34" s="5">
         <v>0.5</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E34" s="17">
         <v>929</v>
       </c>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1">
-      <c r="A32" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E32" s="22">
-        <v>929</v>
-      </c>
-      <c r="F32" s="19"/>
-    </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E33" s="23">
-        <v>930</v>
-      </c>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1">
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1">
-      <c r="F35" s="21"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" spans="1:7" ht="18" customHeight="1">
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:7" ht="18" customHeight="1">
+      <c r="F36" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:F1"/>
-  <mergeCells count="6">
-    <mergeCell ref="A32:A33"/>
+  <autoFilter ref="A1:G34"/>
+  <mergeCells count="5">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A32:A34"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
